--- a/Documents/Sub8BatteryMonitor_BOM.xlsx
+++ b/Documents/Sub8BatteryMonitor_BOM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Frank\Documents\MIL\Subjugator SVN\PCB\Current\BatteryMonitor\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Frank\Documents\MIL\Electrical Github\BatteryMonitor\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEA1E319-827A-400C-A036-0085F68BDC03}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B685FD4C-9155-4C44-809E-33ADD37F3113}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="11496" windowHeight="8964" xr2:uid="{63628D07-E5CE-4D59-8E6F-E98088402DDF}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{63628D07-E5CE-4D59-8E6F-E98088402DDF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -31,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="83">
   <si>
     <t>Description</t>
   </si>
@@ -184,13 +186,109 @@
   </si>
   <si>
     <t>0603, not needed used with external OSC</t>
+  </si>
+  <si>
+    <t>NEW POWER SUPPLY PARTS</t>
+  </si>
+  <si>
+    <t>TPS54160A</t>
+  </si>
+  <si>
+    <t>29.4k</t>
+  </si>
+  <si>
+    <t>1k</t>
+  </si>
+  <si>
+    <t>11.7k</t>
+  </si>
+  <si>
+    <t>Regulator IC</t>
+  </si>
+  <si>
+    <t>150uH coupled inductor</t>
+  </si>
+  <si>
+    <t>22uF</t>
+  </si>
+  <si>
+    <t>10uF</t>
+  </si>
+  <si>
+    <t>1uF</t>
+  </si>
+  <si>
+    <t>0.16uF</t>
+  </si>
+  <si>
+    <t>0.1uF</t>
+  </si>
+  <si>
+    <t>0.36uF</t>
+  </si>
+  <si>
+    <t>400k</t>
+  </si>
+  <si>
+    <t>Schottky diode</t>
+  </si>
+  <si>
+    <t>can get</t>
+  </si>
+  <si>
+    <t>MSD1260-154ML</t>
+  </si>
+  <si>
+    <t>electrolytic</t>
+  </si>
+  <si>
+    <t>rated 50V 0603</t>
+  </si>
+  <si>
+    <t>402k 1206</t>
+  </si>
+  <si>
+    <t>11.8k 1206</t>
+  </si>
+  <si>
+    <t>29.4k 1206</t>
+  </si>
+  <si>
+    <t>60V 1A</t>
+  </si>
+  <si>
+    <t>0.33uF rated 35V 0603</t>
+  </si>
+  <si>
+    <t>0.15uF rated 50V 0603</t>
+  </si>
+  <si>
+    <t>1276-1860-1-ND‎</t>
+  </si>
+  <si>
+    <t>‎445-12479-1-ND‎</t>
+  </si>
+  <si>
+    <t>‎445-12500-1-ND‎</t>
+  </si>
+  <si>
+    <t>‎311-402KFRCT-ND‎</t>
+  </si>
+  <si>
+    <t>‎311-29.4KFRCT-ND‎</t>
+  </si>
+  <si>
+    <t>‎311-11.8KFRCT-ND‎</t>
+  </si>
+  <si>
+    <t>‎1655-1929-1-ND‎</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -242,8 +340,28 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF1D1C1D"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF1D1C1D"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -258,6 +376,11 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
   </fills>
@@ -290,15 +413,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="6">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1"/>
@@ -309,12 +433,17 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="6"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="7">
     <cellStyle name="Bad" xfId="4" builtinId="27"/>
     <cellStyle name="Good" xfId="5" builtinId="26"/>
     <cellStyle name="Heading 3" xfId="1" builtinId="18"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
+    <cellStyle name="Neutral" xfId="6" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Total" xfId="3" builtinId="25"/>
   </cellStyles>
@@ -628,10 +757,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{107AFA56-EAF5-4683-99AB-8D07E3F4D7AE}">
-  <dimension ref="A1:D31"/>
+  <dimension ref="A1:D50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B6" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -977,8 +1106,213 @@
       <c r="D30" s="3"/>
     </row>
     <row r="31" spans="1:4" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" s="8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>52</v>
+      </c>
+      <c r="B36" t="s">
+        <v>56</v>
+      </c>
+      <c r="C36" s="9">
+        <v>1</v>
+      </c>
+      <c r="D36" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="B37" t="s">
+        <v>57</v>
+      </c>
+      <c r="C37" s="6">
+        <v>1</v>
+      </c>
+      <c r="D37" s="10"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B38" t="s">
+        <v>58</v>
+      </c>
+      <c r="C38" s="6">
+        <v>4</v>
+      </c>
+      <c r="D38" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B39" t="s">
+        <v>59</v>
+      </c>
+      <c r="C39" s="6">
+        <v>1</v>
+      </c>
+      <c r="D39" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>76</v>
+      </c>
+      <c r="B40" t="s">
+        <v>60</v>
+      </c>
+      <c r="C40" s="9">
+        <v>1</v>
+      </c>
+      <c r="D40" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>77</v>
+      </c>
+      <c r="B41" t="s">
+        <v>63</v>
+      </c>
+      <c r="C41" s="9">
+        <v>1</v>
+      </c>
+      <c r="D41" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>78</v>
+      </c>
+      <c r="B42" t="s">
+        <v>61</v>
+      </c>
+      <c r="C42" s="9">
+        <v>1</v>
+      </c>
+      <c r="D42" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B43" t="s">
+        <v>62</v>
+      </c>
+      <c r="C43" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>79</v>
+      </c>
+      <c r="B44" t="s">
+        <v>64</v>
+      </c>
+      <c r="C44" s="9">
+        <v>1</v>
+      </c>
+      <c r="D44" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>80</v>
+      </c>
+      <c r="B45" t="s">
+        <v>53</v>
+      </c>
+      <c r="C45" s="9">
+        <v>1</v>
+      </c>
+      <c r="D45" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>81</v>
+      </c>
+      <c r="B46" t="s">
+        <v>55</v>
+      </c>
+      <c r="C46" s="9">
+        <v>1</v>
+      </c>
+      <c r="D46" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B47" t="s">
+        <v>54</v>
+      </c>
+      <c r="C47" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>82</v>
+      </c>
+      <c r="B48" t="s">
+        <v>65</v>
+      </c>
+      <c r="C48" s="9">
+        <v>2</v>
+      </c>
+      <c r="D48" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="3"/>
+      <c r="B49" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C49" s="3">
+        <f>SUM(C36:C48)</f>
+        <v>18</v>
+      </c>
+      <c r="D49" s="3"/>
+    </row>
+    <row r="50" spans="1:4" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A40" r:id="rId1" display="https://www.digikey.com/product-detail/en/CL10A105KB8NNNC/1276-1860-1-ND/3889946/?itemSeq=315051608" xr:uid="{593D1520-32A9-4902-8311-30591D950120}"/>
+    <hyperlink ref="A41" r:id="rId2" display="https://www.digikey.com/product-detail/en/CGA3E3X5R1V334M080AB/445-12479-1-ND/3954145/?itemSeq=315051609" xr:uid="{7D3F081C-08FE-47CE-88BC-04C3B70E776D}"/>
+    <hyperlink ref="A42" r:id="rId3" display="https://www.digikey.com/product-detail/en/CGA3E3X5R1H154K080AB/445-12500-1-ND/3954166/?itemSeq=315051607" xr:uid="{DF6D3365-47D8-4F4C-8E38-B3A357ACF2E5}"/>
+    <hyperlink ref="A44" r:id="rId4" display="https://www.digikey.com/product-detail/en/RC1206FR-07402KL/311-402KFRCT-ND/731848/?itemSeq=315051604" xr:uid="{3873C951-555B-454B-A747-4B1D5A084EFE}"/>
+    <hyperlink ref="A45" r:id="rId5" display="https://www.digikey.com/product-detail/en/RC1206FR-0729K4L/311-29.4KFRCT-ND/731694/?itemSeq=315051605" xr:uid="{C8E8E555-4E51-47C5-B025-8DD4958928E2}"/>
+    <hyperlink ref="A46" r:id="rId6" display="https://www.digikey.com/product-detail/en/RC1206FR-0711K8L/311-11.8KFRCT-ND/731453/?itemSeq=315051603" xr:uid="{8CB6A44C-95A3-4B45-BAC2-1F21DA4AC267}"/>
+    <hyperlink ref="A48" r:id="rId7" display="https://www.digikey.com/product-detail/en/DSS16UTR/1655-1929-1-ND/8341871/?itemSeq=315051606" xr:uid="{3AB6B727-95F6-4909-B6B3-8561584AD2C6}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId8"/>
 </worksheet>
 </file>